--- a/output/ejecucion_2/results/base_19_21/base_19_21_results_test.xlsx
+++ b/output/ejecucion_2/results/base_19_21/base_19_21_results_test.xlsx
@@ -474,7 +474,7 @@
         <v>0.739</v>
       </c>
       <c r="D2">
-        <v>0.063</v>
+        <v>0.491</v>
       </c>
       <c r="E2">
         <v>0.105</v>
@@ -509,7 +509,7 @@
         <v>0.74</v>
       </c>
       <c r="D3">
-        <v>0.174</v>
+        <v>0.545</v>
       </c>
       <c r="E3">
         <v>0.165</v>
@@ -544,7 +544,7 @@
         <v>0.739</v>
       </c>
       <c r="D4">
-        <v>0.166</v>
+        <v>0.541</v>
       </c>
       <c r="E4">
         <v>0.159</v>
@@ -579,7 +579,7 @@
         <v>0.745</v>
       </c>
       <c r="D5">
-        <v>0.253</v>
+        <v>0.582</v>
       </c>
       <c r="E5">
         <v>0.206</v>
@@ -614,7 +614,7 @@
         <v>0.775</v>
       </c>
       <c r="D6">
-        <v>0.152</v>
+        <v>0.534</v>
       </c>
       <c r="E6">
         <v>0.152</v>
@@ -649,7 +649,7 @@
         <v>0.771</v>
       </c>
       <c r="D7">
-        <v>0.203</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E7">
         <v>0.19</v>
@@ -684,7 +684,7 @@
         <v>0.773</v>
       </c>
       <c r="D8">
-        <v>0.192</v>
+        <v>0.553</v>
       </c>
       <c r="E8">
         <v>0.173</v>
@@ -719,7 +719,7 @@
         <v>0.766</v>
       </c>
       <c r="D9">
-        <v>0.412</v>
+        <v>0.612</v>
       </c>
       <c r="E9">
         <v>0.294</v>
